--- a/kategoriler/VASITA KATEGORİ ÇALIŞMASI.xlsx
+++ b/kategoriler/VASITA KATEGORİ ÇALIŞMASI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali_m\OneDrive\Desktop\kategoriler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F194F16-6E56-48BB-9285-BCA22F7899DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D9084A-57F1-42D0-91A2-D9106E192F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5271,7 +5271,7 @@
     <t>ANA KATEGORİ</t>
   </si>
   <si>
-    <t>Aradığınız Ürünün Özellikleri</t>
+    <t>Aradığınız Ürünün Özellikleri KISMI(attribute)</t>
   </si>
 </sst>
 </file>
@@ -5599,8 +5599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N3081"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2814" workbookViewId="0">
-      <selection activeCell="A2239" sqref="A2239:XFD2239"/>
+    <sheetView tabSelected="1" topLeftCell="G696" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5617,7 +5617,7 @@
     <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="108">
+    <row r="1" spans="1:14" ht="162">
       <c r="A1" t="s">
         <v>1747</v>
       </c>
